--- a/Schem/Лист Microsoft Excel.xlsx
+++ b/Schem/Лист Microsoft Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Radio\Jobe\GP2Y0A02YK0F\Schem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Radio\Jobe\GP2Y0A02YK0Fv2\Schem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C556018-5682-4DBC-9BEA-68AB69F38A30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A710ED42-9A9D-4EF2-83AF-943924B4B61B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -663,15 +663,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,7 +691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="91.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="91.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -713,8 +713,11 @@
       <c r="G2">
         <v>600</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -731,8 +734,11 @@
       <c r="F3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -749,8 +755,11 @@
       <c r="F4" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -767,8 +776,11 @@
       <c r="F5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -788,8 +800,11 @@
       <c r="G6">
         <v>150</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="79.8" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -808,8 +823,11 @@
       <c r="F7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="159.6" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="159.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -828,8 +846,11 @@
       <c r="F8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="57" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="57" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -851,8 +872,11 @@
       <c r="G9">
         <v>150</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="91.2" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="91.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -875,7 +899,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -895,8 +919,11 @@
       <c r="G11">
         <v>400</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="91.2" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="91.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -915,8 +942,11 @@
       <c r="F12" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="102.6" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="102.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -938,8 +968,11 @@
       <c r="G13">
         <v>470</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
@@ -958,8 +991,11 @@
       <c r="F14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>560</v>
       </c>
@@ -976,8 +1012,11 @@
       <c r="F15" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>56</v>
       </c>
@@ -994,8 +1033,11 @@
       <c r="F16" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>120</v>
       </c>
@@ -1012,8 +1054,11 @@
       <c r="F17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>10</v>
       </c>
@@ -1030,8 +1075,11 @@
       <c r="F18" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -1048,8 +1096,11 @@
       <c r="F19" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>510</v>
       </c>
@@ -1066,8 +1117,11 @@
       <c r="F20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -1084,8 +1138,11 @@
       <c r="F21" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="68.400000000000006" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>64</v>
       </c>
@@ -1104,8 +1161,11 @@
       <c r="F22" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="45.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>68</v>
@@ -1122,8 +1182,11 @@
       <c r="F23" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="125.4" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="125.4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -1145,8 +1208,11 @@
       <c r="G24">
         <v>700</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="68.400000000000006" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>76</v>
       </c>
@@ -1168,8 +1234,11 @@
       <c r="G25">
         <v>150</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="79.8" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>80</v>
       </c>
@@ -1189,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>84</v>
       </c>
@@ -1209,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>88</v>
       </c>
@@ -1229,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G29">
         <f>SUM(G2:G28)</f>
         <v>2680</v>
